--- a/실무_엑셀_예제_파일/Chapter03/03-003.xlsx
+++ b/실무_엑셀_예제_파일/Chapter03/03-003.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC05F74-C156-46C6-9E7A-B21CFDE1E26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799C31DE-DD05-4CB4-BF72-B7E0773D2025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{BBF14E60-0CAA-49E5-98A1-C8142838040F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{BBF14E60-0CAA-49E5-98A1-C8142838040F}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 숫자정렬" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,10 @@
     <sheet name="5. 세로축" sheetId="3" r:id="rId5"/>
     <sheet name="보고서실습" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -259,13 +249,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%;[Color9]\-0.0%;\-;"/>
     <numFmt numFmtId="177" formatCode="&quot; &quot;@"/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.0%;[Color9]\-0.0;\-;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,8 +417,15 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="4" tint="-0.24994659260841701"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,8 +462,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -908,6 +912,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -926,7 +1005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,9 +1013,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1008,7 +1084,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1068,18 +1144,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1107,11 +1171,8 @@
     <xf numFmtId="3" fontId="17" fillId="0" borderId="30" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1134,24 +1195,15 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1184,6 +1236,75 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="7" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="7" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="7" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="7" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="7" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="7" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="7" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1712,123 +1833,125 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D71531-9D99-4F95-8B69-A5EFD5281DD3}">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="17.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.25" style="70" customWidth="1"/>
+    <col min="2" max="2" width="17.08203125" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="63" customWidth="1"/>
     <col min="4" max="4" width="5.25" customWidth="1"/>
-    <col min="5" max="6" width="11.625" customWidth="1"/>
+    <col min="5" max="6" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:6" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="70">
+      <c r="C3" s="63">
         <v>1444216203</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="63">
         <v>1393409033</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="70">
+      <c r="C5" s="63">
         <v>332915074</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>4200</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="70">
+      <c r="C6" s="63">
         <v>146748600</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="70">
+      <c r="C7" s="63">
         <v>125960000</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>4800</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="70">
+      <c r="C8" s="63">
         <v>96208984</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="70">
+      <c r="C9" s="63">
         <v>51821669</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="63">
         <v>36488800</v>
       </c>
     </row>
@@ -1842,84 +1965,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4132DBDC-A0BB-40D5-965F-60BC13192DC6}">
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="3" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:3" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="69">
+      <c r="C3" s="77">
         <v>1444216203</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="69">
+      <c r="C4" s="77">
         <v>1393409033</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="77">
         <v>332915074</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="77">
         <v>146748600</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="77">
         <v>125960000</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="77">
         <v>96208984</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="77">
         <v>51821669</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="77">
         <v>36488800</v>
       </c>
     </row>
@@ -1933,140 +2058,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967DA07D-3E36-4A56-B0E4-DA63D1C9176C}">
   <dimension ref="B1:K7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H7" sqref="H5:H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="1" max="1" width="4.08203125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="6" max="6" width="6.25" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="G2" s="22" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="25"/>
-      <c r="E3" s="30" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="24"/>
+      <c r="E3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="2:11" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="2:11" ht="21.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>2017</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>2018</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>2019</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>2017</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>2018</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:11" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>31605</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>33429</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>31838</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>31605</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>33429</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>31838</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:11" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>7.3342825502293943E-2</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>5.4563403033294447E-2</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>-4.997173189270683E-2</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>51.4</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="23">
         <v>51.6</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="23">
         <v>51.7</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="18" t="s">
+    <row r="7" spans="2:11" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>7.3342825502293943E-2</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="18">
         <v>5.4563403033294447E-2</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="18">
         <v>-4.997173189270683E-2</v>
       </c>
     </row>
@@ -2081,244 +2208,246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D392A3A4-B961-4AF4-94AB-CCCBD0EFF465}">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="7.75" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="5" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="5" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="78" t="s">
+    <row r="1" spans="2:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:5" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-    </row>
-    <row r="3" spans="2:5" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="77" t="s">
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+    </row>
+    <row r="3" spans="2:5" ht="21.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="68" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="76" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="E4" s="66" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="72" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="71">
+      <c r="C5" s="64">
         <v>1347</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="64">
         <v>917</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="64">
         <v>1429</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="74" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="65">
         <v>1078</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="65">
         <v>734</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="65">
         <v>1143</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="74" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="73">
+      <c r="C7" s="65">
         <v>269</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="65">
         <v>183</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="65">
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="72" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="64">
         <f>SUM(C9:C10)</f>
         <v>458</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="64">
         <f>SUM(D9:D10)</f>
         <v>312</v>
       </c>
-      <c r="E8" s="71">
+      <c r="E8" s="64">
         <f>SUM(E9:E10)</f>
         <v>486</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="74" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="65">
         <v>323</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="65">
         <v>220</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="65">
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="74" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="73">
+      <c r="C10" s="65">
         <v>135</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="65">
         <v>92</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="65">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="72" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="64">
         <f>SUM(C12:C13,C16:C17)</f>
         <v>712</v>
       </c>
-      <c r="D11" s="71">
+      <c r="D11" s="64">
         <f>SUM(D12:D13,D16:D17)</f>
         <v>700</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="64">
         <f>SUM(E12:E13,E16:E17)</f>
         <v>735</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="74" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="73">
+      <c r="C12" s="65">
         <v>150</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="65">
         <v>150</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="65">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="74" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="73">
+      <c r="C13" s="65">
         <v>455</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="65">
         <v>455</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="65">
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="74" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="73">
+      <c r="C14" s="65">
         <v>355</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="65">
         <v>355</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="65">
         <v>355</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="74" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="73">
+      <c r="C15" s="65">
         <v>100</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="65">
         <v>100</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="65">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="74" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="73">
+      <c r="C16" s="65">
         <v>60</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="65">
         <v>50</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="65">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="74" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="73">
+      <c r="C17" s="65">
         <v>47</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="65">
         <v>45</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="65">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="72" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="71">
+      <c r="C18" s="64">
         <f>C5-C8-C11</f>
         <v>177</v>
       </c>
-      <c r="D18" s="71">
+      <c r="D18" s="64">
         <f>D5-D8-D11</f>
         <v>-95</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="64">
         <f>E5-E8-E11</f>
         <v>208</v>
       </c>
@@ -2338,235 +2467,235 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="26" t="s">
+    <row r="1" spans="2:9" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>2014</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>2015</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>2016</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>2017</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>2018</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="60" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="13">
         <v>29242</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="13">
         <v>28724</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="13">
         <v>29287</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="13">
         <v>31605</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="13">
         <v>33429</v>
       </c>
-      <c r="I3" s="61">
+      <c r="I3" s="13">
         <v>31838</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="62"/>
-      <c r="C4" s="63" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>7.0583407427672523E-2</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>-1.8033700041776912E-2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>1.9223546283333903E-2</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>7.3342825502293943E-2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>5.4563403033294447E-2</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>-4.997173189270683E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="60" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="13">
         <v>38109</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="13">
         <v>34524</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="13">
         <v>38762</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="13">
         <v>38387</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="13">
         <v>39159</v>
       </c>
-      <c r="I5" s="61">
+      <c r="I5" s="13">
         <v>40247</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="62"/>
-      <c r="C6" s="63" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>-6.1534020834973363E-2</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>-0.10384080639555092</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>0.10933388370053145</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>-9.7689321905853541E-3</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>1.9714497305855613E-2</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>2.7033070787884812E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="60" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="13">
         <v>55048</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="13">
         <v>56823</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="13">
         <v>57928</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="13">
         <v>59958</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="13">
         <v>62997</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="13">
         <v>65281</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
-      <c r="C8" s="64" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="55"/>
+      <c r="C8" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>3.5060311001307951E-2</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>3.1237351072629042E-2</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>1.9075403949730702E-2</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="31">
         <v>3.3857033256612962E-2</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="31">
         <v>4.824039239963808E-2</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="31">
         <v>3.498720914201682E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="65" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>40799.666666666664</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>40023.666666666664</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <v>41992.333333333336</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>43316.666666666664</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>45195</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <v>45788.666666666664</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="67"/>
-      <c r="C10" s="68" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>1.3472332290296431E-2</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <v>-1.9388528453998053E-2</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="41">
         <v>4.6881573620581644E-2</v>
       </c>
-      <c r="G10" s="42">
+      <c r="G10" s="41">
         <v>3.0573297422085307E-2</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="41">
         <v>4.1560644614079781E-2</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="41">
         <v>1.2965362607923307E-2</v>
       </c>
     </row>
@@ -2583,1130 +2712,1132 @@
   </sheetPr>
   <dimension ref="B1:X24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.25" customWidth="1"/>
-    <col min="13" max="13" width="6.875" customWidth="1"/>
+    <col min="13" max="13" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:24" ht="15.65" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="N2" s="22" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="N2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-    </row>
-    <row r="3" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-    </row>
-    <row r="4" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="46" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+    </row>
+    <row r="3" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+    </row>
+    <row r="4" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="82">
         <v>2011</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="82">
         <v>2012</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="82">
         <v>2013</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="87">
         <v>2014</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="82">
         <v>2015</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="88">
         <v>2016</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="82">
         <v>2017</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="82">
         <v>2018</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="82">
         <v>2019</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>2011</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="8">
         <v>2012</v>
       </c>
-      <c r="R4" s="10">
+      <c r="R4" s="9">
         <v>2013</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="10">
         <v>2014</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="8">
         <v>2015</v>
       </c>
-      <c r="U4" s="10">
+      <c r="U4" s="9">
         <v>2016</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="8">
         <v>2017</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="8">
         <v>2018</v>
       </c>
-      <c r="X4" s="9">
+      <c r="X4" s="8">
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="91">
         <v>25100</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="91">
         <v>25458</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="91">
         <v>27178</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="92">
         <v>29242</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="91">
         <v>28724</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="93">
         <v>29287</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="91">
         <v>31605</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="91">
         <v>33429</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="91">
         <v>31838</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="13">
         <v>25100</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="13">
         <v>25458</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="14">
         <v>27178</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="15">
         <v>29242</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="13">
         <v>28724</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="14">
         <v>29287</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="13">
         <v>31605</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="13">
         <v>33429</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="13">
         <v>31838</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B6" s="46"/>
-      <c r="C6" s="46" t="s">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="85">
         <f t="shared" ref="E6:L6" si="0">(E5-D5)/D5</f>
         <v>1.4262948207171314E-2</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="85">
         <f t="shared" si="0"/>
         <v>6.7562259407651815E-2</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="89">
         <f t="shared" si="0"/>
         <v>7.5943778055780412E-2</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="85">
         <f t="shared" si="0"/>
         <v>-1.7714246631557348E-2</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="90">
         <f t="shared" si="0"/>
         <v>1.9600334215290349E-2</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="85">
         <f t="shared" si="0"/>
         <v>7.9147744733158054E-2</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="85">
         <f t="shared" si="0"/>
         <v>5.7712387280493591E-2</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="85">
         <f t="shared" si="0"/>
         <v>-4.7593406922133479E-2</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18" t="s">
+      <c r="N6" s="16"/>
+      <c r="O6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="19">
+      <c r="Q6" s="18">
         <f t="shared" ref="Q6:X6" si="1">(Q5-P5)/Q5</f>
         <v>1.4062377248801949E-2</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="19">
         <f t="shared" si="1"/>
         <v>6.3286481713150336E-2</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="20">
         <f t="shared" si="1"/>
         <v>7.0583407427672523E-2</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="18">
         <f t="shared" si="1"/>
         <v>-1.8033700041776912E-2</v>
       </c>
-      <c r="U6" s="20">
+      <c r="U6" s="19">
         <f t="shared" si="1"/>
         <v>1.9223546283333903E-2</v>
       </c>
-      <c r="V6" s="19">
+      <c r="V6" s="18">
         <f t="shared" si="1"/>
         <v>7.3342825502293943E-2</v>
       </c>
-      <c r="W6" s="19">
+      <c r="W6" s="18">
         <f t="shared" si="1"/>
         <v>5.4563403033294447E-2</v>
       </c>
-      <c r="X6" s="19">
+      <c r="X6" s="18">
         <f t="shared" si="1"/>
         <v>-4.997173189270683E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="46" t="s">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="91">
         <v>48168</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="91">
         <v>48603</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="91">
         <v>40454</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="92">
         <v>38109</v>
       </c>
-      <c r="H7" s="48">
+      <c r="H7" s="91">
         <v>34524</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="93">
         <v>38762</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="91">
         <v>38387</v>
       </c>
-      <c r="K7" s="48">
+      <c r="K7" s="91">
         <v>39159</v>
       </c>
-      <c r="L7" s="48">
+      <c r="L7" s="91">
         <v>40247</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="13">
         <v>48168</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="13">
         <v>48603</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="14">
         <v>40454</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="15">
         <v>38109</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="13">
         <v>34524</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="14">
         <v>38762</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="13">
         <v>38387</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="13">
         <v>39159</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="13">
         <v>40247</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46" t="s">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B8" s="83"/>
+      <c r="C8" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="85">
         <f t="shared" ref="E8:L8" si="2">(E7-D7)/D7</f>
         <v>9.0308918784255104E-3</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="85">
         <f t="shared" si="2"/>
         <v>-0.16766454745591836</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="89">
         <f t="shared" si="2"/>
         <v>-5.796707371335344E-2</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="85">
         <f t="shared" si="2"/>
         <v>-9.4072266393765258E-2</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="90">
         <f t="shared" si="2"/>
         <v>0.12275518479898041</v>
       </c>
-      <c r="J8" s="49">
+      <c r="J8" s="85">
         <f t="shared" si="2"/>
         <v>-9.6744234043651001E-3</v>
       </c>
-      <c r="K8" s="49">
+      <c r="K8" s="85">
         <f t="shared" si="2"/>
         <v>2.0110975069685049E-2</v>
       </c>
-      <c r="L8" s="49">
+      <c r="L8" s="85">
         <f t="shared" si="2"/>
         <v>2.7784162006179933E-2</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="18" t="s">
+      <c r="N8" s="16"/>
+      <c r="O8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="P8" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="19">
+      <c r="Q8" s="18">
         <f t="shared" ref="Q8:X8" si="3">(Q7-P7)/Q7</f>
         <v>8.9500648108141474E-3</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <f t="shared" si="3"/>
         <v>-0.20143867108320562</v>
       </c>
-      <c r="S8" s="21">
+      <c r="S8" s="20">
         <f t="shared" si="3"/>
         <v>-6.1534020834973363E-2</v>
       </c>
-      <c r="T8" s="19">
+      <c r="T8" s="18">
         <f t="shared" si="3"/>
         <v>-0.10384080639555092</v>
       </c>
-      <c r="U8" s="20">
+      <c r="U8" s="19">
         <f t="shared" si="3"/>
         <v>0.10933388370053145</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="18">
         <f t="shared" si="3"/>
         <v>-9.7689321905853541E-3</v>
       </c>
-      <c r="W8" s="19">
+      <c r="W8" s="18">
         <f t="shared" si="3"/>
         <v>1.9714497305855613E-2</v>
       </c>
-      <c r="X8" s="19">
+      <c r="X8" s="18">
         <f t="shared" si="3"/>
         <v>2.7033070787884812E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="46" t="s">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B9" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="91">
         <v>49887</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="91">
         <v>51611</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="91">
         <v>53118</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="92">
         <v>55048</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="91">
         <v>56823</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="93">
         <v>57928</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="91">
         <v>59958</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="91">
         <v>62997</v>
       </c>
-      <c r="L9" s="48">
+      <c r="L9" s="91">
         <v>65281</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <v>49887</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="13">
         <v>51611</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="14">
         <v>53118</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="15">
         <v>55048</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="13">
         <v>56823</v>
       </c>
-      <c r="U9" s="15">
+      <c r="U9" s="14">
         <v>57928</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="13">
         <v>59958</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="13">
         <v>62997</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="13">
         <v>65281</v>
       </c>
     </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="46"/>
-      <c r="C10" s="46" t="s">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B10" s="83"/>
+      <c r="C10" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="94">
         <f t="shared" ref="E10:L10" si="4">(E9-D9)/D9</f>
         <v>3.4558101308958249E-2</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="94">
         <f t="shared" si="4"/>
         <v>2.9199201720563447E-2</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="95">
         <f t="shared" si="4"/>
         <v>3.6334199329794044E-2</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="94">
         <f t="shared" si="4"/>
         <v>3.2244586542653685E-2</v>
       </c>
-      <c r="I10" s="49">
+      <c r="I10" s="96">
         <f t="shared" si="4"/>
         <v>1.9446350949439486E-2</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="94">
         <f t="shared" si="4"/>
         <v>3.504350227869079E-2</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="94">
         <f t="shared" si="4"/>
         <v>5.0685479835885117E-2</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="94">
         <f t="shared" si="4"/>
         <v>3.625569471562138E-2</v>
       </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="31" t="s">
+      <c r="N10" s="11"/>
+      <c r="O10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="31">
         <f t="shared" ref="Q10:X10" si="5">(Q9-P9)/Q9</f>
         <v>3.3403731762608746E-2</v>
       </c>
-      <c r="R10" s="33">
+      <c r="R10" s="32">
         <f t="shared" si="5"/>
         <v>2.8370797093264052E-2</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="33">
         <f t="shared" si="5"/>
         <v>3.5060311001307951E-2</v>
       </c>
-      <c r="T10" s="32">
+      <c r="T10" s="31">
         <f t="shared" si="5"/>
         <v>3.1237351072629042E-2</v>
       </c>
-      <c r="U10" s="33">
+      <c r="U10" s="32">
         <f t="shared" si="5"/>
         <v>1.9075403949730702E-2</v>
       </c>
-      <c r="V10" s="32">
+      <c r="V10" s="31">
         <f t="shared" si="5"/>
         <v>3.3857033256612962E-2</v>
       </c>
-      <c r="W10" s="32">
+      <c r="W10" s="31">
         <f t="shared" si="5"/>
         <v>4.824039239963808E-2</v>
       </c>
-      <c r="X10" s="32">
+      <c r="X10" s="31">
         <f t="shared" si="5"/>
         <v>3.498720914201682E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="45" t="s">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B11" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="97">
         <f t="shared" ref="D11:L11" si="6">AVERAGE(D5,D7,D9)</f>
         <v>41051.666666666664</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="97">
         <f t="shared" si="6"/>
         <v>41890.666666666664</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="97">
         <f t="shared" si="6"/>
         <v>40250</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="98">
         <f t="shared" si="6"/>
         <v>40799.666666666664</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="97">
         <f t="shared" si="6"/>
         <v>40023.666666666664</v>
       </c>
-      <c r="I11" s="50">
+      <c r="I11" s="99">
         <f t="shared" si="6"/>
         <v>41992.333333333336</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="97">
         <f t="shared" si="6"/>
         <v>43316.666666666664</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="97">
         <f t="shared" si="6"/>
         <v>45195</v>
       </c>
-      <c r="L11" s="50">
+      <c r="L11" s="97">
         <f t="shared" si="6"/>
         <v>45788.666666666664</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="O11" s="36" t="s">
+      <c r="O11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="36">
         <f t="shared" ref="P11:X11" si="7">AVERAGE(P5,P7,P9)</f>
         <v>41051.666666666664</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q11" s="36">
         <f t="shared" si="7"/>
         <v>41890.666666666664</v>
       </c>
-      <c r="R11" s="38">
+      <c r="R11" s="37">
         <f t="shared" si="7"/>
         <v>40250</v>
       </c>
-      <c r="S11" s="39">
+      <c r="S11" s="38">
         <f t="shared" si="7"/>
         <v>40799.666666666664</v>
       </c>
-      <c r="T11" s="37">
+      <c r="T11" s="36">
         <f t="shared" si="7"/>
         <v>40023.666666666664</v>
       </c>
-      <c r="U11" s="38">
+      <c r="U11" s="37">
         <f t="shared" si="7"/>
         <v>41992.333333333336</v>
       </c>
-      <c r="V11" s="37">
+      <c r="V11" s="36">
         <f t="shared" si="7"/>
         <v>43316.666666666664</v>
       </c>
-      <c r="W11" s="37">
+      <c r="W11" s="36">
         <f t="shared" si="7"/>
         <v>45195</v>
       </c>
-      <c r="X11" s="37">
+      <c r="X11" s="36">
         <f t="shared" si="7"/>
         <v>45788.666666666664</v>
       </c>
     </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46" t="s">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="B12" s="86"/>
+      <c r="C12" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="85">
         <f t="shared" ref="E12:L12" si="8">(E11-D11)/D11</f>
         <v>2.0437659859526613E-2</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="85">
         <f t="shared" si="8"/>
         <v>-3.9165446559297164E-2</v>
       </c>
-      <c r="G12" s="49">
+      <c r="G12" s="89">
         <f t="shared" si="8"/>
         <v>1.36563146997929E-2</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="85">
         <f t="shared" si="8"/>
         <v>-1.901976323335975E-2</v>
       </c>
-      <c r="I12" s="49">
+      <c r="I12" s="90">
         <f t="shared" si="8"/>
         <v>4.9187564024618893E-2</v>
       </c>
-      <c r="J12" s="49">
+      <c r="J12" s="85">
         <f t="shared" si="8"/>
         <v>3.1537502877509269E-2</v>
       </c>
-      <c r="K12" s="49">
+      <c r="K12" s="85">
         <f t="shared" si="8"/>
         <v>4.3362831858407141E-2</v>
       </c>
-      <c r="L12" s="49">
+      <c r="L12" s="85">
         <f t="shared" si="8"/>
         <v>1.3135671350075545E-2</v>
       </c>
-      <c r="N12" s="40"/>
-      <c r="O12" s="41" t="s">
+      <c r="N12" s="39"/>
+      <c r="O12" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="42" t="s">
+      <c r="P12" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="Q12" s="41">
         <f t="shared" ref="Q12:X12" si="9">(Q11-P11)/Q11</f>
         <v>2.0028327710229804E-2</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R12" s="42">
         <f t="shared" si="9"/>
         <v>-4.0761904761904701E-2</v>
       </c>
-      <c r="S12" s="44">
+      <c r="S12" s="43">
         <f t="shared" si="9"/>
         <v>1.3472332290296431E-2</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="41">
         <f t="shared" si="9"/>
         <v>-1.9388528453998053E-2</v>
       </c>
-      <c r="U12" s="43">
+      <c r="U12" s="42">
         <f t="shared" si="9"/>
         <v>4.6881573620581644E-2</v>
       </c>
-      <c r="V12" s="42">
+      <c r="V12" s="41">
         <f t="shared" si="9"/>
         <v>3.0573297422085307E-2</v>
       </c>
-      <c r="W12" s="42">
+      <c r="W12" s="41">
         <f t="shared" si="9"/>
         <v>4.1560644614079781E-2</v>
       </c>
-      <c r="X12" s="42">
+      <c r="X12" s="41">
         <f t="shared" si="9"/>
         <v>1.2965362607923307E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-    </row>
-    <row r="14" spans="2:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N14" s="79" t="s">
+    <row r="13" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+    </row>
+    <row r="14" spans="2:24" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="N14" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="81"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="N16" s="53" t="s">
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="72"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="N16" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="53" t="s">
+      <c r="O16" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="54">
+      <c r="P16" s="49">
         <v>2011</v>
       </c>
-      <c r="Q16" s="54">
+      <c r="Q16" s="49">
         <v>2012</v>
       </c>
-      <c r="R16" s="54">
+      <c r="R16" s="49">
         <v>2013</v>
       </c>
-      <c r="S16" s="54">
+      <c r="S16" s="49">
         <v>2014</v>
       </c>
-      <c r="T16" s="54">
+      <c r="T16" s="49">
         <v>2015</v>
       </c>
-      <c r="U16" s="54">
+      <c r="U16" s="49">
         <v>2016</v>
       </c>
-      <c r="V16" s="54">
+      <c r="V16" s="49">
         <v>2017</v>
       </c>
-      <c r="W16" s="54">
+      <c r="W16" s="49">
         <v>2018</v>
       </c>
-      <c r="X16" s="54">
+      <c r="X16" s="49">
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N17" s="82" t="s">
+    <row r="17" spans="14:24" x14ac:dyDescent="0.45">
+      <c r="N17" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="O17" s="55" t="s">
+      <c r="O17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P17" s="56">
+      <c r="P17" s="51">
         <v>25100</v>
       </c>
-      <c r="Q17" s="56">
+      <c r="Q17" s="51">
         <v>25458</v>
       </c>
-      <c r="R17" s="56">
+      <c r="R17" s="51">
         <v>27178</v>
       </c>
-      <c r="S17" s="56">
+      <c r="S17" s="51">
         <v>29242</v>
       </c>
-      <c r="T17" s="56">
+      <c r="T17" s="51">
         <v>28724</v>
       </c>
-      <c r="U17" s="56">
+      <c r="U17" s="51">
         <v>29287</v>
       </c>
-      <c r="V17" s="56">
+      <c r="V17" s="51">
         <v>31605</v>
       </c>
-      <c r="W17" s="56">
+      <c r="W17" s="51">
         <v>33429</v>
       </c>
-      <c r="X17" s="56">
+      <c r="X17" s="51">
         <v>31838</v>
       </c>
     </row>
-    <row r="18" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N18" s="83"/>
-      <c r="O18" s="57" t="s">
+    <row r="18" spans="14:24" x14ac:dyDescent="0.45">
+      <c r="N18" s="74"/>
+      <c r="O18" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="58" t="s">
+      <c r="P18" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="Q18" s="58">
+      <c r="Q18" s="53">
         <f t="shared" ref="Q18:X18" si="10">(Q17-P17)/Q17</f>
         <v>1.4062377248801949E-2</v>
       </c>
-      <c r="R18" s="58">
+      <c r="R18" s="53">
         <f t="shared" si="10"/>
         <v>6.3286481713150336E-2</v>
       </c>
-      <c r="S18" s="58">
+      <c r="S18" s="53">
         <f t="shared" si="10"/>
         <v>7.0583407427672523E-2</v>
       </c>
-      <c r="T18" s="58">
+      <c r="T18" s="53">
         <f t="shared" si="10"/>
         <v>-1.8033700041776912E-2</v>
       </c>
-      <c r="U18" s="58">
+      <c r="U18" s="53">
         <f t="shared" si="10"/>
         <v>1.9223546283333903E-2</v>
       </c>
-      <c r="V18" s="58">
+      <c r="V18" s="53">
         <f t="shared" si="10"/>
         <v>7.3342825502293943E-2</v>
       </c>
-      <c r="W18" s="58">
+      <c r="W18" s="53">
         <f t="shared" si="10"/>
         <v>5.4563403033294447E-2</v>
       </c>
-      <c r="X18" s="58">
+      <c r="X18" s="53">
         <f t="shared" si="10"/>
         <v>-4.997173189270683E-2</v>
       </c>
     </row>
-    <row r="19" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N19" s="82" t="s">
+    <row r="19" spans="14:24" x14ac:dyDescent="0.45">
+      <c r="N19" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="O19" s="55" t="s">
+      <c r="O19" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P19" s="56">
+      <c r="P19" s="51">
         <v>48168</v>
       </c>
-      <c r="Q19" s="56">
+      <c r="Q19" s="51">
         <v>48603</v>
       </c>
-      <c r="R19" s="56">
+      <c r="R19" s="51">
         <v>40454</v>
       </c>
-      <c r="S19" s="56">
+      <c r="S19" s="51">
         <v>38109</v>
       </c>
-      <c r="T19" s="56">
+      <c r="T19" s="51">
         <v>34524</v>
       </c>
-      <c r="U19" s="56">
+      <c r="U19" s="51">
         <v>38762</v>
       </c>
-      <c r="V19" s="56">
+      <c r="V19" s="51">
         <v>38387</v>
       </c>
-      <c r="W19" s="56">
+      <c r="W19" s="51">
         <v>39159</v>
       </c>
-      <c r="X19" s="56">
+      <c r="X19" s="51">
         <v>40247</v>
       </c>
     </row>
-    <row r="20" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N20" s="83"/>
-      <c r="O20" s="57" t="s">
+    <row r="20" spans="14:24" x14ac:dyDescent="0.45">
+      <c r="N20" s="74"/>
+      <c r="O20" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P20" s="58" t="s">
+      <c r="P20" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="Q20" s="58">
+      <c r="Q20" s="53">
         <f t="shared" ref="Q20:X20" si="11">(Q19-P19)/Q19</f>
         <v>8.9500648108141474E-3</v>
       </c>
-      <c r="R20" s="58">
+      <c r="R20" s="53">
         <f t="shared" si="11"/>
         <v>-0.20143867108320562</v>
       </c>
-      <c r="S20" s="58">
+      <c r="S20" s="53">
         <f t="shared" si="11"/>
         <v>-6.1534020834973363E-2</v>
       </c>
-      <c r="T20" s="58">
+      <c r="T20" s="53">
         <f t="shared" si="11"/>
         <v>-0.10384080639555092</v>
       </c>
-      <c r="U20" s="58">
+      <c r="U20" s="53">
         <f t="shared" si="11"/>
         <v>0.10933388370053145</v>
       </c>
-      <c r="V20" s="58">
+      <c r="V20" s="53">
         <f t="shared" si="11"/>
         <v>-9.7689321905853541E-3</v>
       </c>
-      <c r="W20" s="58">
+      <c r="W20" s="53">
         <f t="shared" si="11"/>
         <v>1.9714497305855613E-2</v>
       </c>
-      <c r="X20" s="58">
+      <c r="X20" s="53">
         <f t="shared" si="11"/>
         <v>2.7033070787884812E-2</v>
       </c>
     </row>
-    <row r="21" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N21" s="82" t="s">
+    <row r="21" spans="14:24" x14ac:dyDescent="0.45">
+      <c r="N21" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="O21" s="55" t="s">
+      <c r="O21" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P21" s="56">
+      <c r="P21" s="51">
         <v>49887</v>
       </c>
-      <c r="Q21" s="56">
+      <c r="Q21" s="51">
         <v>51611</v>
       </c>
-      <c r="R21" s="56">
+      <c r="R21" s="51">
         <v>53118</v>
       </c>
-      <c r="S21" s="56">
+      <c r="S21" s="51">
         <v>55048</v>
       </c>
-      <c r="T21" s="56">
+      <c r="T21" s="51">
         <v>56823</v>
       </c>
-      <c r="U21" s="56">
+      <c r="U21" s="51">
         <v>57928</v>
       </c>
-      <c r="V21" s="56">
+      <c r="V21" s="51">
         <v>59958</v>
       </c>
-      <c r="W21" s="56">
+      <c r="W21" s="51">
         <v>62997</v>
       </c>
-      <c r="X21" s="56">
+      <c r="X21" s="51">
         <v>65281</v>
       </c>
     </row>
-    <row r="22" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N22" s="83"/>
-      <c r="O22" s="57" t="s">
+    <row r="22" spans="14:24" x14ac:dyDescent="0.45">
+      <c r="N22" s="74"/>
+      <c r="O22" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P22" s="58" t="s">
+      <c r="P22" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="Q22" s="58">
+      <c r="Q22" s="53">
         <f t="shared" ref="Q22:X22" si="12">(Q21-P21)/Q21</f>
         <v>3.3403731762608746E-2</v>
       </c>
-      <c r="R22" s="58">
+      <c r="R22" s="53">
         <f t="shared" si="12"/>
         <v>2.8370797093264052E-2</v>
       </c>
-      <c r="S22" s="58">
+      <c r="S22" s="53">
         <f t="shared" si="12"/>
         <v>3.5060311001307951E-2</v>
       </c>
-      <c r="T22" s="58">
+      <c r="T22" s="53">
         <f t="shared" si="12"/>
         <v>3.1237351072629042E-2</v>
       </c>
-      <c r="U22" s="58">
+      <c r="U22" s="53">
         <f t="shared" si="12"/>
         <v>1.9075403949730702E-2</v>
       </c>
-      <c r="V22" s="58">
+      <c r="V22" s="53">
         <f t="shared" si="12"/>
         <v>3.3857033256612962E-2</v>
       </c>
-      <c r="W22" s="58">
+      <c r="W22" s="53">
         <f t="shared" si="12"/>
         <v>4.824039239963808E-2</v>
       </c>
-      <c r="X22" s="58">
+      <c r="X22" s="53">
         <f t="shared" si="12"/>
         <v>3.498720914201682E-2</v>
       </c>
     </row>
-    <row r="23" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N23" s="84" t="s">
+    <row r="23" spans="14:24" x14ac:dyDescent="0.45">
+      <c r="N23" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="55" t="s">
+      <c r="O23" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P23" s="59">
+      <c r="P23" s="54">
         <f t="shared" ref="P23:X23" si="13">AVERAGE(P17,P19,P21)</f>
         <v>41051.666666666664</v>
       </c>
-      <c r="Q23" s="59">
+      <c r="Q23" s="54">
         <f t="shared" si="13"/>
         <v>41890.666666666664</v>
       </c>
-      <c r="R23" s="59">
+      <c r="R23" s="54">
         <f t="shared" si="13"/>
         <v>40250</v>
       </c>
-      <c r="S23" s="59">
+      <c r="S23" s="54">
         <f t="shared" si="13"/>
         <v>40799.666666666664</v>
       </c>
-      <c r="T23" s="59">
+      <c r="T23" s="54">
         <f t="shared" si="13"/>
         <v>40023.666666666664</v>
       </c>
-      <c r="U23" s="59">
+      <c r="U23" s="54">
         <f t="shared" si="13"/>
         <v>41992.333333333336</v>
       </c>
-      <c r="V23" s="59">
+      <c r="V23" s="54">
         <f t="shared" si="13"/>
         <v>43316.666666666664</v>
       </c>
-      <c r="W23" s="59">
+      <c r="W23" s="54">
         <f t="shared" si="13"/>
         <v>45195</v>
       </c>
-      <c r="X23" s="59">
+      <c r="X23" s="54">
         <f t="shared" si="13"/>
         <v>45788.666666666664</v>
       </c>
     </row>
-    <row r="24" spans="14:24" x14ac:dyDescent="0.3">
-      <c r="N24" s="85"/>
-      <c r="O24" s="57" t="s">
+    <row r="24" spans="14:24" x14ac:dyDescent="0.45">
+      <c r="N24" s="76"/>
+      <c r="O24" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="P24" s="58" t="s">
+      <c r="P24" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="Q24" s="58">
+      <c r="Q24" s="53">
         <f t="shared" ref="Q24:X24" si="14">(Q23-P23)/Q23</f>
         <v>2.0028327710229804E-2</v>
       </c>
-      <c r="R24" s="58">
+      <c r="R24" s="53">
         <f t="shared" si="14"/>
         <v>-4.0761904761904701E-2</v>
       </c>
-      <c r="S24" s="58">
+      <c r="S24" s="53">
         <f t="shared" si="14"/>
         <v>1.3472332290296431E-2</v>
       </c>
-      <c r="T24" s="58">
+      <c r="T24" s="53">
         <f t="shared" si="14"/>
         <v>-1.9388528453998053E-2</v>
       </c>
-      <c r="U24" s="58">
+      <c r="U24" s="53">
         <f t="shared" si="14"/>
         <v>4.6881573620581644E-2</v>
       </c>
-      <c r="V24" s="58">
+      <c r="V24" s="53">
         <f t="shared" si="14"/>
         <v>3.0573297422085307E-2</v>
       </c>
-      <c r="W24" s="58">
+      <c r="W24" s="53">
         <f t="shared" si="14"/>
         <v>4.1560644614079781E-2</v>
       </c>
-      <c r="X24" s="58">
+      <c r="X24" s="53">
         <f t="shared" si="14"/>
         <v>1.2965362607923307E-2</v>
       </c>
